--- a/結合テスト/テストケース/ものづくり結合テスト_アプリ_Android.xlsx
+++ b/結合テスト/テストケース/ものづくり結合テスト_アプリ_Android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itcc-admin\Desktop\结合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D65A77-9816-4028-817F-EF6342262C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86830B0-C95A-4B1F-903C-F3B934434F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="667" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧_x001c_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="488">
   <si>
     <t>アプリ</t>
   </si>
@@ -614,14 +614,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>お好みリストが正常に表示される</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>認証成功というメッセージが表示される</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>認証失敗というメッセージが表示される</t>
     <rPh sb="0" eb="2">
       <t>ニンショウ</t>
@@ -902,10 +894,6 @@
     <rPh sb="2" eb="4">
       <t>コクセキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>7.お好みリストを取得</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
@@ -1576,29 +1564,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>デフォルト地図アプリが開くこと
-※Androidの場合地図選択ダイアログが開くこと</t>
-    <rPh sb="5" eb="7">
-      <t>チズ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>チズ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>未使用のクーポン</t>
     <rPh sb="0" eb="3">
       <t>ミシヨウ</t>
@@ -2195,13 +2160,6 @@
     </rPh>
     <rPh sb="66" eb="68">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>お好みリストをタップ</t>
-    <rPh sb="1" eb="2">
-      <t>コノ</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
@@ -3588,12 +3546,120 @@
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
+  <si>
+    <t>7.生年月日プルダウン</t>
+    <rPh sb="2" eb="6">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>生年月日プルダウンをタップ</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>生年月日プルダウンが正常に作動すること</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サドウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>新規登録画面に遷移されること</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>張</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>デフォルト地図アプリが開くこと
+※Androidかつ地図アプリ一つ上の場合選択ダイアログが呼び出される</t>
+    <rPh sb="5" eb="7">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>機能がないため削除</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ケース削除、期待値確認できないため</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3784,6 +3850,22 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="16">
@@ -4511,7 +4593,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4730,66 +4812,82 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4805,18 +4903,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4854,52 +4987,49 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4908,55 +5038,22 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4965,7 +5062,197 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3 3" xfId="2" xr:uid="{101C33D8-BABC-471A-9CA5-44C88605D75F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5294,127 +5581,127 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="90" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="91">
         <v>6</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="88"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="96"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="97"/>
-      <c r="B5" s="93"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="89"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="97"/>
-      <c r="B6" s="93" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="90" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="89"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="97"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="89"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="97"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="89"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="97"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="89"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="97"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="89"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="97"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="97"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="97"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="97"/>
-      <c r="B12" s="93" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="90" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="89"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="97"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="97"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="89"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="97"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="97"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="91"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="98"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="84" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -5423,60 +5710,60 @@
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="94">
         <v>3</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="83"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="99"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="100"/>
-      <c r="B16" s="93" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="90" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="83"/>
+        <v>241</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="99"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="100"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="83"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="99"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="100"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="83"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="99"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="100"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="83"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="99"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="83" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -5485,136 +5772,136 @@
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="94">
         <v>6</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="83"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="99"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="97"/>
-      <c r="B21" s="93" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="90" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="83"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="99"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="97"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="83"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="99"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="97"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="83"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="99"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="97"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="83"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="99"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="97"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="83"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="99"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="97"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="83"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="99"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="97"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="83"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="99"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="97"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="83"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="99"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="97"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="83"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="99"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="97"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="83"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="99"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="97"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="83"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="99"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="83" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -5623,76 +5910,76 @@
       <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="94">
         <v>3</v>
       </c>
-      <c r="E32" s="87"/>
-      <c r="F32" s="83"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="99"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="97"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="83"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="99"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="97"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="83"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="99"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="97"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>416</v>
-      </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="83"/>
+        <v>411</v>
+      </c>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="99"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="95" t="s">
+      <c r="B36" s="88" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="91">
         <v>1</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="88"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="96"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="97"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="91"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="98"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="83" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -5701,67 +5988,67 @@
       <c r="C38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="84">
+      <c r="D38" s="91">
         <v>3</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="88"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="96"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="97"/>
-      <c r="B39" s="93" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="90" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="89"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="97"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="97"/>
-      <c r="B40" s="93"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="89"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="97"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="97"/>
-      <c r="B41" s="93" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="90" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="89"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="97"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="97"/>
-      <c r="B42" s="93"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="89"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="97"/>
     </row>
     <row r="43" spans="1:6" ht="20.399999999999999" thickBot="1">
-      <c r="A43" s="98"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="90"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="101"/>
     </row>
     <row r="44" spans="1:6">
       <c r="D44" s="27"/>
@@ -5810,45 +6097,45 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="93" t="s">
+      <c r="B49" s="90" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="87">
+      <c r="D49" s="94">
         <v>2</v>
       </c>
-      <c r="E49" s="87"/>
-      <c r="F49" s="83"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="99"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="99"/>
-      <c r="B50" s="93"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="83"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="99"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="99"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="83"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="99"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="86" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -5857,119 +6144,119 @@
       <c r="C52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="87">
+      <c r="D52" s="94">
         <v>6</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="83"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="99"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="99"/>
-      <c r="B53" s="93" t="s">
+      <c r="A53" s="86"/>
+      <c r="B53" s="90" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="83"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="99"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="99"/>
-      <c r="B54" s="93"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="83"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="99"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="99"/>
-      <c r="B55" s="93" t="s">
+      <c r="A55" s="86"/>
+      <c r="B55" s="90" t="s">
         <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="83"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="99"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="99"/>
-      <c r="B56" s="93"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="83"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="99"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="99"/>
-      <c r="B57" s="93"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="83"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="99"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="99"/>
-      <c r="B58" s="93"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="83"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="99"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="99"/>
-      <c r="B59" s="93"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="83"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="99"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="99"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="83"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="99"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="99"/>
-      <c r="B61" s="93" t="s">
+      <c r="A61" s="86"/>
+      <c r="B61" s="90" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="83"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="99"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="99"/>
-      <c r="B62" s="93"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="83"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="99"/>
     </row>
     <row r="63" spans="1:6" ht="20.399999999999999" thickBot="1">
       <c r="A63" s="32" t="s">
@@ -6029,179 +6316,179 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="94" t="s">
+      <c r="A69" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="93" t="s">
+      <c r="B69" s="90" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="87">
+      <c r="D69" s="94">
         <v>3</v>
       </c>
-      <c r="E69" s="87"/>
-      <c r="F69" s="83"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="99"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="94"/>
-      <c r="B70" s="93"/>
+      <c r="A70" s="87"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="83"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="99"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="94"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="83"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="99"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="94"/>
+      <c r="A72" s="87"/>
       <c r="B72" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="83"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="99"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="94" t="s">
+      <c r="A73" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="90" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="87">
+      <c r="D73" s="94">
         <v>4</v>
       </c>
-      <c r="E73" s="87"/>
-      <c r="F73" s="83"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="99"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="94"/>
-      <c r="B74" s="93"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="83"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="99"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="94"/>
-      <c r="B75" s="93"/>
+      <c r="A75" s="87"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="83"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="99"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="94"/>
-      <c r="B76" s="93"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="83"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="99"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="94"/>
+      <c r="A77" s="87"/>
       <c r="B77" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="83"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="99"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="94"/>
-      <c r="B78" s="93" t="s">
+      <c r="A78" s="87"/>
+      <c r="B78" s="90" t="s">
         <v>95</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="83"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="99"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="94"/>
-      <c r="B79" s="93"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="87"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="83"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="94"/>
+      <c r="F79" s="99"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="94"/>
-      <c r="B80" s="93"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="83"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="99"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="94"/>
-      <c r="B81" s="93"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="90"/>
       <c r="C81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="83"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="99"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="94"/>
-      <c r="B82" s="93" t="s">
+      <c r="A82" s="87"/>
+      <c r="B82" s="90" t="s">
         <v>100</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="87"/>
-      <c r="E82" s="87"/>
-      <c r="F82" s="83"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="99"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="94"/>
-      <c r="B83" s="93"/>
+      <c r="A83" s="87"/>
+      <c r="B83" s="90"/>
       <c r="C83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="83"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="99"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="94" t="s">
+      <c r="A84" s="87" t="s">
         <v>103</v>
       </c>
       <c r="B84" s="23" t="s">
@@ -6210,62 +6497,62 @@
       <c r="C84" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="87">
+      <c r="D84" s="94">
         <v>6</v>
       </c>
-      <c r="E84" s="87"/>
-      <c r="F84" s="82" t="s">
+      <c r="E84" s="94"/>
+      <c r="F84" s="100" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="94"/>
+      <c r="A85" s="87"/>
       <c r="B85" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="87"/>
-      <c r="E85" s="87"/>
-      <c r="F85" s="82"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="100"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="94"/>
+      <c r="A86" s="87"/>
       <c r="B86" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="87"/>
-      <c r="E86" s="87"/>
-      <c r="F86" s="82"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="94"/>
+      <c r="F86" s="100"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="94"/>
-      <c r="B87" s="93" t="s">
+      <c r="A87" s="87"/>
+      <c r="B87" s="90" t="s">
         <v>111</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="82"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="100"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="94"/>
-      <c r="B88" s="93"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="90"/>
       <c r="C88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="87"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="82"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="94"/>
+      <c r="F88" s="100"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="94" t="s">
+      <c r="A89" s="87" t="s">
         <v>67</v>
       </c>
       <c r="B89" s="23" t="s">
@@ -6274,205 +6561,205 @@
       <c r="C89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D89" s="87">
+      <c r="D89" s="94">
         <v>8</v>
       </c>
-      <c r="E89" s="87"/>
-      <c r="F89" s="83" t="s">
+      <c r="E89" s="94"/>
+      <c r="F89" s="99" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="94"/>
+      <c r="A90" s="87"/>
       <c r="B90" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="87"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="83"/>
+      <c r="D90" s="94"/>
+      <c r="E90" s="94"/>
+      <c r="F90" s="99"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="94"/>
-      <c r="B91" s="93" t="s">
+      <c r="A91" s="87"/>
+      <c r="B91" s="90" t="s">
         <v>72</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D91" s="87"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="83"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="99"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="94"/>
-      <c r="B92" s="93"/>
+      <c r="A92" s="87"/>
+      <c r="B92" s="90"/>
       <c r="C92" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="87"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="83"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="99"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="94"/>
-      <c r="B93" s="93"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="90"/>
       <c r="C93" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="83"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="94"/>
+      <c r="F93" s="99"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="94"/>
-      <c r="B94" s="93"/>
+      <c r="A94" s="87"/>
+      <c r="B94" s="90"/>
       <c r="C94" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="87"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="83"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="99"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="94"/>
-      <c r="B95" s="93"/>
+      <c r="A95" s="87"/>
+      <c r="B95" s="90"/>
       <c r="C95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="83"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="94"/>
+      <c r="F95" s="99"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="94"/>
-      <c r="B96" s="93"/>
+      <c r="A96" s="87"/>
+      <c r="B96" s="90"/>
       <c r="C96" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="83"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="94"/>
+      <c r="F96" s="99"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="94"/>
-      <c r="B97" s="93" t="s">
+      <c r="A97" s="87"/>
+      <c r="B97" s="90" t="s">
         <v>80</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="87"/>
-      <c r="E97" s="87"/>
-      <c r="F97" s="83"/>
+      <c r="D97" s="94"/>
+      <c r="E97" s="94"/>
+      <c r="F97" s="99"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="94"/>
-      <c r="B98" s="93"/>
+      <c r="A98" s="87"/>
+      <c r="B98" s="90"/>
       <c r="C98" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="87"/>
-      <c r="E98" s="87"/>
-      <c r="F98" s="83"/>
+      <c r="D98" s="94"/>
+      <c r="E98" s="94"/>
+      <c r="F98" s="99"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="94"/>
-      <c r="B99" s="93" t="s">
+      <c r="A99" s="87"/>
+      <c r="B99" s="90" t="s">
         <v>123</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="83"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="99"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="94"/>
-      <c r="B100" s="93"/>
+      <c r="A100" s="87"/>
+      <c r="B100" s="90"/>
       <c r="C100" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="87"/>
-      <c r="E100" s="87"/>
-      <c r="F100" s="83"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="94"/>
+      <c r="F100" s="99"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="94"/>
-      <c r="B101" s="93" t="s">
+      <c r="A101" s="87"/>
+      <c r="B101" s="90" t="s">
         <v>124</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D101" s="87"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="83"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="94"/>
+      <c r="F101" s="99"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="94"/>
-      <c r="B102" s="93"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="90"/>
       <c r="C102" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="87"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="83"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="99"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="94"/>
-      <c r="B103" s="93"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D103" s="87"/>
-      <c r="E103" s="87"/>
-      <c r="F103" s="83"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="99"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="94"/>
-      <c r="B104" s="93" t="s">
+      <c r="A104" s="87"/>
+      <c r="B104" s="90" t="s">
         <v>125</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="83"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="99"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="94"/>
-      <c r="B105" s="93"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="90"/>
       <c r="C105" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="87"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="83"/>
+      <c r="D105" s="94"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="99"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="94"/>
-      <c r="B106" s="93"/>
+      <c r="A106" s="87"/>
+      <c r="B106" s="90"/>
       <c r="C106" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D106" s="87"/>
-      <c r="E106" s="87"/>
-      <c r="F106" s="83"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="99"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="94"/>
-      <c r="B107" s="93"/>
+      <c r="A107" s="87"/>
+      <c r="B107" s="90"/>
       <c r="C107" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D107" s="87"/>
-      <c r="E107" s="87"/>
-      <c r="F107" s="83"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="94"/>
+      <c r="F107" s="99"/>
     </row>
     <row r="108" spans="1:6" ht="20.399999999999999" thickBot="1">
       <c r="A108" s="42" t="s">
@@ -6492,41 +6779,25 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A62"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A83"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A107"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="D4:D14"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D62"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D73:D83"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="F89:F107"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F62"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F73:F83"/>
+    <mergeCell ref="F4:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E4:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E37"/>
     <mergeCell ref="D84:D88"/>
     <mergeCell ref="D89:D107"/>
     <mergeCell ref="B78:B81"/>
@@ -6543,25 +6814,41 @@
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="E4:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F4:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="F89:F107"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F62"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="F73:F83"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D62"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D73:D83"/>
+    <mergeCell ref="D4:D14"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A107"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A62"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A83"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6582,14 +6869,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="101" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="102"/>
+      <c r="D1" s="103"/>
       <c r="E1" s="8"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -6601,14 +6888,14 @@
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="114">
+      <c r="B2" s="103"/>
+      <c r="C2" s="106">
         <v>45592</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6652,25 +6939,25 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="107" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="108"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10" t="s">
         <v>140</v>
@@ -6679,15 +6966,15 @@
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="110"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="116"/>
       <c r="J6" s="12"/>
       <c r="K6" s="13" t="s">
         <v>141</v>
@@ -6705,16 +6992,16 @@
       <c r="C7" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="101" t="s">
+      <c r="E7" s="109"/>
+      <c r="F7" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="102"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="103"/>
       <c r="J7" s="8"/>
       <c r="K7" s="13" t="s">
         <v>145</v>
@@ -6724,22 +7011,22 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B8" s="64">
         <v>45596</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="101" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="102"/>
+        <v>246</v>
+      </c>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="15"/>
       <c r="K8" s="13" t="s">
         <v>146</v>
@@ -6751,12 +7038,12 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="103"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -6766,12 +7053,12 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -6781,12 +7068,12 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -6796,12 +7083,12 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -6811,12 +7098,12 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="8"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -7169,13 +7456,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="A5:A6"/>
@@ -7192,6 +7472,13 @@
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7203,8 +7490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7216,78 +7503,80 @@
     <col min="5" max="5" width="8.81640625" style="44" customWidth="1"/>
     <col min="6" max="6" width="24.1796875" style="44" customWidth="1"/>
     <col min="7" max="7" width="34.81640625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="44" customWidth="1"/>
-    <col min="9" max="11" width="9" style="44"/>
+    <col min="8" max="8" width="50.36328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="44"/>
+    <col min="10" max="10" width="10.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="44"/>
     <col min="12" max="12" width="27" style="44" customWidth="1"/>
     <col min="13" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="132" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="133" t="s">
+      <c r="K2" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="119"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="130"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="50" t="s">
         <v>162</v>
       </c>
@@ -7297,95 +7586,113 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="131"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="57.6">
       <c r="A5" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="143" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="143" t="s">
+      <c r="B5" s="132" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="132" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H5" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="I5" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" ht="57.6">
       <c r="A6" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J6" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="57.6">
       <c r="A7" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="145"/>
+        <v>197</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H7" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+      <c r="I7" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J7" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" ht="33" customHeight="1">
@@ -7393,43 +7700,49 @@
         <v>156</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>152</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+        <v>177</v>
+      </c>
+      <c r="I8" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J8" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" ht="86.4">
       <c r="A9" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="134" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="126" t="s">
         <v>171</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>152</v>
@@ -7438,74 +7751,92 @@
         <v>164</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H9" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
+      <c r="I9" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J9" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" ht="57.6">
       <c r="A10" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="138"/>
+        <v>203</v>
+      </c>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>152</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H10" s="53"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
+      <c r="I10" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J10" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" ht="100.8">
       <c r="A11" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="138"/>
+        <v>204</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+        <v>173</v>
+      </c>
+      <c r="I11" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J11" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" ht="100.8">
       <c r="A12" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="138"/>
+        <v>205</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>152</v>
@@ -7514,24 +7845,30 @@
         <v>164</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+        <v>483</v>
+      </c>
+      <c r="I12" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J12" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="134"/>
-      <c r="C13" s="138"/>
+        <v>206</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>152</v>
@@ -7540,24 +7877,30 @@
         <v>164</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+        <v>176</v>
+      </c>
+      <c r="I13" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J13" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="138"/>
+        <v>207</v>
+      </c>
+      <c r="B14" s="123"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>152</v>
@@ -7566,154 +7909,190 @@
         <v>164</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H14" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="I14" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J14" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+        <v>208</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="56" t="s">
-        <v>226</v>
+        <v>479</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+        <v>481</v>
+      </c>
+      <c r="I15" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J15" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12" ht="43.2">
       <c r="A16" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="138"/>
+        <v>209</v>
+      </c>
+      <c r="B16" s="123"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="56" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F16" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+        <v>175</v>
+      </c>
+      <c r="I16" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J16" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12" ht="43.2">
       <c r="A17" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="138"/>
+        <v>224</v>
+      </c>
+      <c r="B17" s="123"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="56" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+        <v>175</v>
+      </c>
+      <c r="I17" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J17" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L17" s="53"/>
     </row>
     <row r="18" spans="1:12" ht="43.2">
       <c r="A18" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="138"/>
+        <v>225</v>
+      </c>
+      <c r="B18" s="123"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="56" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F18" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H18" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
+        <v>175</v>
+      </c>
+      <c r="I18" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J18" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="43.2">
       <c r="A19" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="134"/>
-      <c r="C19" s="138"/>
+        <v>226</v>
+      </c>
+      <c r="B19" s="123"/>
+      <c r="C19" s="127"/>
       <c r="D19" s="63" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F19" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+        <v>175</v>
+      </c>
+      <c r="I19" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J19" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="28.8">
       <c r="A20" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="139"/>
+        <v>227</v>
+      </c>
+      <c r="B20" s="124"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E20" s="46" t="s">
         <v>152</v>
@@ -7722,28 +8101,34 @@
         <v>164</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
+        <v>174</v>
+      </c>
+      <c r="I20" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J20" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="57.6">
       <c r="A21" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="137" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="126" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E21" s="46" t="s">
         <v>152</v>
@@ -7752,48 +8137,60 @@
         <v>164</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H21" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
+      <c r="I21" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J21" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12" ht="72">
       <c r="A22" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="138"/>
+        <v>211</v>
+      </c>
+      <c r="B22" s="123"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="61" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H22" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
+        <v>175</v>
+      </c>
+      <c r="I22" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J22" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="72">
       <c r="A23" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="139"/>
+        <v>212</v>
+      </c>
+      <c r="B23" s="123"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E23" s="46" t="s">
         <v>152</v>
@@ -7802,80 +8199,98 @@
         <v>164</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H23" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
+      <c r="I23" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J23" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" ht="86.4">
       <c r="A24" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="129" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
+        <v>175</v>
+      </c>
+      <c r="I24" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J24" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" ht="86.4">
       <c r="A25" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="141"/>
+        <v>214</v>
+      </c>
+      <c r="B25" s="127"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="49" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F25" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+        <v>175</v>
+      </c>
+      <c r="I25" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J25" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="86.4">
       <c r="A26" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="142"/>
+        <v>215</v>
+      </c>
+      <c r="B26" s="128"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E26" s="46" t="s">
         <v>152</v>
@@ -7884,18 +8299,33 @@
         <v>164</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H26" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
+        <v>178</v>
+      </c>
+      <c r="I26" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J26" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L26" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="B9:B20"/>
@@ -7906,17 +8336,19 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
+  <conditionalFormatting sqref="I5:I26">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"OK,NG,N/A"</formula1>
@@ -7931,8 +8363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB9436-C0CC-48F8-B29D-AE82A2AEF0D3}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7945,77 +8377,79 @@
     <col min="6" max="6" width="24.1796875" style="44" customWidth="1"/>
     <col min="7" max="7" width="34.81640625" style="44" customWidth="1"/>
     <col min="8" max="8" width="43.1796875" style="44" customWidth="1"/>
-    <col min="9" max="11" width="9" style="44"/>
+    <col min="9" max="9" width="9" style="44"/>
+    <col min="10" max="10" width="10.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="44"/>
     <col min="12" max="12" width="27" style="44" customWidth="1"/>
     <col min="13" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+        <v>234</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="133" t="s">
+      <c r="K2" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="119"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="130"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -8025,199 +8459,241 @@
       <c r="D4" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="130"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="147" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="57" t="s">
         <v>239</v>
-      </c>
-      <c r="C5" s="148" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>242</v>
       </c>
       <c r="F5" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="162" t="s">
-        <v>247</v>
+      <c r="G5" s="148" t="s">
+        <v>244</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+        <v>240</v>
+      </c>
+      <c r="I5" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="163" t="s">
-        <v>255</v>
-      </c>
       <c r="E6" s="57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F6" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="163" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J6" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="163" t="s">
-        <v>256</v>
-      </c>
       <c r="E7" s="57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="163" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J7" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L7" s="69"/>
     </row>
     <row r="8" spans="1:12" ht="57.6">
       <c r="A8" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="148" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="148"/>
+        <v>254</v>
+      </c>
+      <c r="B8" s="147" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="147"/>
       <c r="D8" s="72" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>164</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
+        <v>272</v>
+      </c>
+      <c r="I8" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J8" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="43.2">
       <c r="A9" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
+        <v>255</v>
+      </c>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="72" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>164</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="72"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+        <v>273</v>
+      </c>
+      <c r="I9" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J9" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:12" ht="43.2">
       <c r="A10" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="164" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="148"/>
+        <v>257</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="147"/>
       <c r="D10" s="72" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F10" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
+      <c r="I10" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J10" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:12" ht="43.2">
       <c r="A11" s="71" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="164"/>
-      <c r="C11" s="148"/>
+        <v>265</v>
+      </c>
+      <c r="B11" s="149"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="72" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="72"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
+        <v>270</v>
+      </c>
+      <c r="I11" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J11" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:12">
@@ -8225,12 +8701,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C5:C11"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:D3"/>
@@ -8241,8 +8711,25 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C5:C11"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I11" xr:uid="{61C614E4-2B0F-4C72-A76E-C363FCBAB8D0}">
       <formula1>"OK,NG,N/A"</formula1>
@@ -8257,8 +8744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B4F6AD-C420-4117-81B9-E6CBF49A4BA0}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8270,78 +8757,80 @@
     <col min="5" max="5" width="8.81640625" style="44" customWidth="1"/>
     <col min="6" max="6" width="24.1796875" style="44" customWidth="1"/>
     <col min="7" max="7" width="34.81640625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="44.1796875" style="44" customWidth="1"/>
-    <col min="9" max="11" width="9" style="44"/>
+    <col min="8" max="8" width="51.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="44"/>
+    <col min="10" max="10" width="11.1796875" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="44"/>
     <col min="12" max="12" width="27" style="44" customWidth="1"/>
     <col min="13" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+        <v>234</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="133" t="s">
+      <c r="K2" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="119"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="130"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -8351,505 +8840,611 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="131"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="A5" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="149" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="149" t="s">
-        <v>299</v>
+      <c r="C5" s="151" t="s">
+        <v>296</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+        <v>285</v>
+      </c>
+      <c r="I5" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" ht="43.2">
       <c r="A6" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
+        <v>283</v>
+      </c>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
       <c r="D6" s="56" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+        <v>288</v>
+      </c>
+      <c r="I6" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J6" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="28.8">
       <c r="A7" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="149" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="151" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F7" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+        <v>292</v>
+      </c>
+      <c r="I7" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J7" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" ht="57.6">
       <c r="A8" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="B8" s="151"/>
+        <v>289</v>
+      </c>
+      <c r="B8" s="153"/>
       <c r="C8" s="81" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F8" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+        <v>293</v>
+      </c>
+      <c r="I8" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J8" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" ht="28.8">
       <c r="A9" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="149" t="s">
-        <v>299</v>
+        <v>290</v>
+      </c>
+      <c r="B9" s="153"/>
+      <c r="C9" s="151" t="s">
+        <v>296</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F9" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>364</v>
-      </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
+        <v>359</v>
+      </c>
+      <c r="I9" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J9" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="30">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:12" ht="15.6">
+      <c r="A10" s="169" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="153"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="169" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="169" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="169" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="169" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="151"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="67" t="s">
-        <v>361</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>298</v>
-      </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="53"/>
+      <c r="H10" s="169" t="s">
+        <v>295</v>
+      </c>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="53" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="44.4">
       <c r="A11" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="B11" s="151"/>
+        <v>355</v>
+      </c>
+      <c r="B11" s="153"/>
       <c r="C11" s="81" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F11" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+        <v>298</v>
+      </c>
+      <c r="I11" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J11" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" ht="43.2">
       <c r="A12" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="149" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="149" t="s">
-        <v>299</v>
+      <c r="C12" s="151" t="s">
+        <v>296</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>428</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+        <v>423</v>
+      </c>
+      <c r="I12" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J12" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="43.2">
       <c r="A13" s="75" t="s">
-        <v>424</v>
-      </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
+        <v>419</v>
+      </c>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
       <c r="D13" s="67" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H13" s="74" t="s">
-        <v>427</v>
-      </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+        <v>422</v>
+      </c>
+      <c r="I13" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J13" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L13" s="53"/>
     </row>
-    <row r="14" spans="1:12" ht="28.8">
+    <row r="14" spans="1:12" ht="43.2">
       <c r="A14" s="75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B14" s="57" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+        <v>485</v>
+      </c>
+      <c r="I14" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J14" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:12" ht="23.4" customHeight="1">
       <c r="A15" s="75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B15" s="71" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E15" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>290</v>
-      </c>
       <c r="H15" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+        <v>308</v>
+      </c>
+      <c r="I15" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J15" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12" ht="43.2">
       <c r="A16" s="75" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B16" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F16" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="G16" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="60" t="s">
-        <v>314</v>
-      </c>
       <c r="H16" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+        <v>311</v>
+      </c>
+      <c r="I16" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J16" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12" ht="43.2">
       <c r="A17" s="75" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B17" s="71" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+        <v>312</v>
+      </c>
+      <c r="I17" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J17" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L17" s="53"/>
     </row>
     <row r="18" spans="1:12" ht="28.8">
       <c r="A18" s="75" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B18" s="71" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F18" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H18" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
+        <v>313</v>
+      </c>
+      <c r="I18" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J18" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="43.2">
       <c r="A19" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" s="46" t="s">
         <v>284</v>
-      </c>
-      <c r="B19" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="137" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>287</v>
       </c>
       <c r="F19" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H19" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+        <v>323</v>
+      </c>
+      <c r="I19" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J19" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="43.2">
       <c r="A20" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="G20" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="52" t="s">
+      <c r="H20" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="G20" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="H20" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
+      <c r="I20" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J20" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="43.2">
       <c r="A21" s="75" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B21" s="71" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F21" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>351</v>
-      </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
+        <v>346</v>
+      </c>
+      <c r="I21" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J21" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L21" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
@@ -8861,16 +9456,19 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
+  <conditionalFormatting sqref="I5:I9 I11:I21">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I21" xr:uid="{02101EE9-BA88-4C06-BB84-262EA535BBB1}">
       <formula1>"OK,NG,N/A"</formula1>
@@ -8888,8 +9486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31C926D-FC49-4820-885D-ECC844B7AC4D}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8902,77 +9500,79 @@
     <col min="6" max="6" width="24.1796875" style="44" customWidth="1"/>
     <col min="7" max="7" width="34.81640625" style="44" customWidth="1"/>
     <col min="8" max="8" width="43.1796875" style="44" customWidth="1"/>
-    <col min="9" max="11" width="9" style="44"/>
+    <col min="9" max="9" width="9" style="44"/>
+    <col min="10" max="10" width="10.36328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="44"/>
     <col min="12" max="12" width="27" style="44" customWidth="1"/>
     <col min="13" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+        <v>234</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="133" t="s">
+      <c r="K2" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="119"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="130"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -8982,103 +9582,121 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="131"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="57.6">
       <c r="A5" s="55" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+        <v>360</v>
+      </c>
+      <c r="I5" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" ht="100.8">
       <c r="A6" s="55" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="61" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>411</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>417</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J6" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="86.4">
       <c r="A7" s="55" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>483</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+        <v>478</v>
+      </c>
+      <c r="I7" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J7" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12">
@@ -9110,6 +9728,17 @@
     <mergeCell ref="L2:L4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
+  <conditionalFormatting sqref="I5:I7">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I8" xr:uid="{0D679BA3-08C4-4C73-B6ED-52B0846BC754}">
       <formula1>"OK,NG,N/A"</formula1>
@@ -9124,8 +9753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FF470B-8629-4B75-8995-B1CA6FAEA43A}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9138,77 +9767,79 @@
     <col min="6" max="6" width="24.1796875" style="44" customWidth="1"/>
     <col min="7" max="7" width="34.81640625" style="44" customWidth="1"/>
     <col min="8" max="8" width="43.1796875" style="44" customWidth="1"/>
-    <col min="9" max="11" width="9" style="44"/>
-    <col min="12" max="12" width="27" style="44" customWidth="1"/>
+    <col min="9" max="9" width="9" style="44"/>
+    <col min="10" max="10" width="10.36328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="44"/>
+    <col min="12" max="12" width="34" style="44" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+        <v>234</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="133" t="s">
+      <c r="K2" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="119"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="130"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -9218,70 +9849,78 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="131"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="72">
       <c r="A5" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" s="149" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="151" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="G5" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="167" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="167" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" s="167" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="167" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" s="167" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" s="167" t="s">
         <v>430</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>433</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>374</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="53"/>
-    </row>
-    <row r="6" spans="1:12" ht="100.8">
-      <c r="A6" s="55" t="s">
-        <v>429</v>
-      </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>432</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>434</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>435</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="53"/>
+      <c r="L6" s="53" t="s">
+        <v>487</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9300,6 +9939,17 @@
     <mergeCell ref="K2:K4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I6" xr:uid="{44D7E3BC-560B-4AEF-9650-239648B097EE}">
       <formula1>"OK,NG,N/A"</formula1>
@@ -9314,8 +9964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C479EE-0B72-47D6-AEE7-532E0FE2C734}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9327,77 +9977,79 @@
     <col min="6" max="6" width="24.1796875" style="44" customWidth="1"/>
     <col min="7" max="7" width="34.81640625" style="44" customWidth="1"/>
     <col min="8" max="8" width="43.1796875" style="44" customWidth="1"/>
-    <col min="9" max="11" width="9" style="44"/>
+    <col min="9" max="9" width="9" style="44"/>
+    <col min="10" max="10" width="10.36328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="44"/>
     <col min="12" max="12" width="27" style="44" customWidth="1"/>
     <col min="13" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="132" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="133" t="s">
+      <c r="K2" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="119"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="130"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -9407,249 +10059,302 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="131"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="A5" s="55" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="151" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>381</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+        <v>376</v>
+      </c>
+      <c r="I5" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" ht="43.2">
       <c r="A6" s="78" t="s">
-        <v>376</v>
-      </c>
-      <c r="B6" s="149" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="150"/>
+      <c r="C6" s="152"/>
       <c r="D6" s="56" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+        <v>377</v>
+      </c>
+      <c r="I6" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J6" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="57.6">
       <c r="A7" s="78" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="150"/>
+        <v>433</v>
+      </c>
+      <c r="B7" s="152"/>
       <c r="C7" s="57" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F7" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>443</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+        <v>438</v>
+      </c>
+      <c r="I7" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J7" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" ht="43.2">
       <c r="A8" s="71" t="s">
-        <v>377</v>
-      </c>
-      <c r="B8" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="151" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F8" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+        <v>379</v>
+      </c>
+      <c r="I8" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J8" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" ht="57.6">
       <c r="A9" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="B9" s="150"/>
+        <v>440</v>
+      </c>
+      <c r="B9" s="152"/>
       <c r="C9" s="57" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F9" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>443</v>
-      </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
+        <v>438</v>
+      </c>
+      <c r="I9" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J9" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" ht="43.2">
       <c r="A10" s="71" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="149" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="151" t="s">
         <v>169</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F10" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
+        <v>381</v>
+      </c>
+      <c r="I10" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J10" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" ht="57.6">
       <c r="A11" s="71" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" s="150"/>
+        <v>363</v>
+      </c>
+      <c r="C11" s="152"/>
       <c r="D11" s="56" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+        <v>383</v>
+      </c>
+      <c r="I11" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J11" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" ht="72">
       <c r="A12" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>436</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>437</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>439</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>441</v>
       </c>
       <c r="F12" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>443</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+        <v>438</v>
+      </c>
+      <c r="I12" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J12" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L12" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:D3"/>
@@ -9660,13 +10365,19 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
+  <conditionalFormatting sqref="I5:I12">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I12" xr:uid="{0C8CF5B4-62AF-42DE-983E-1B325604F896}">
       <formula1>"OK,NG,N/A"</formula1>
@@ -9681,8 +10392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E902D0B8-784B-4639-9F9F-60C201EA5BC0}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9695,77 +10406,79 @@
     <col min="6" max="6" width="24.1796875" style="44" customWidth="1"/>
     <col min="7" max="7" width="34.81640625" style="44" customWidth="1"/>
     <col min="8" max="8" width="43.1796875" style="44" customWidth="1"/>
-    <col min="9" max="11" width="9" style="44"/>
+    <col min="9" max="9" width="9" style="44"/>
+    <col min="10" max="10" width="10.36328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="44"/>
     <col min="12" max="12" width="27" style="44" customWidth="1"/>
     <col min="13" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>389</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+        <v>234</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="133" t="s">
+      <c r="K2" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="119"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="130"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -9775,64 +10488,70 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="131"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="A5" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" s="149" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" s="149" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="151" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="151" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="146" t="s">
-        <v>400</v>
+        <v>284</v>
+      </c>
+      <c r="F5" s="162" t="s">
+        <v>395</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H5" s="61" t="str">
         <f>C5&amp;"画面が日本語で表示されること"</f>
         <v>ログイン画面が日本語で表示されること</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="I5" s="165" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="166">
+        <v>45608</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" ht="28.8">
       <c r="A6" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
+        <v>390</v>
+      </c>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="56" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="147"/>
+        <v>284</v>
+      </c>
+      <c r="F6" s="163"/>
       <c r="G6" s="60" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
@@ -9841,22 +10560,22 @@
     </row>
     <row r="7" spans="1:12" ht="43.2">
       <c r="A7" s="55" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
+        <v>391</v>
+      </c>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
       <c r="D7" s="67" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" s="152"/>
+        <v>284</v>
+      </c>
+      <c r="F7" s="164"/>
       <c r="G7" s="60" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="48"/>
@@ -9865,25 +10584,25 @@
     </row>
     <row r="8" spans="1:12" ht="43.2" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>401</v>
-      </c>
-      <c r="B8" s="153" t="s">
-        <v>464</v>
+        <v>396</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>459</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="154" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" s="155" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="153" t="s">
-        <v>404</v>
-      </c>
-      <c r="G8" s="158" t="s">
-        <v>403</v>
+        <v>233</v>
+      </c>
+      <c r="D8" s="160" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" s="161" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="154" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" s="157" t="s">
+        <v>398</v>
       </c>
       <c r="H8" s="49" t="str">
         <f>C8&amp;"画面が日本語で表示されること"</f>
@@ -9896,16 +10615,16 @@
     </row>
     <row r="9" spans="1:12" ht="43.2" customHeight="1">
       <c r="A9" s="55" t="s">
-        <v>402</v>
-      </c>
-      <c r="B9" s="151"/>
+        <v>397</v>
+      </c>
+      <c r="B9" s="153"/>
       <c r="C9" s="57" t="s">
-        <v>450</v>
-      </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="159"/>
+        <v>445</v>
+      </c>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="49" t="str">
         <f t="shared" ref="H9:H18" si="0">C9&amp;"画面が日本語で表示されること"</f>
         <v>店舗詳細画面が日本語で表示されること</v>
@@ -9917,16 +10636,16 @@
     </row>
     <row r="10" spans="1:12" ht="28.8" customHeight="1">
       <c r="A10" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="B10" s="151"/>
+        <v>450</v>
+      </c>
+      <c r="B10" s="153"/>
       <c r="C10" s="81" t="s">
-        <v>453</v>
-      </c>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="159"/>
+        <v>448</v>
+      </c>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="158"/>
       <c r="H10" s="49" t="str">
         <f t="shared" si="0"/>
         <v>全て口コミ画面が日本語で表示されること</v>
@@ -9938,16 +10657,16 @@
     </row>
     <row r="11" spans="1:12" ht="28.8" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>456</v>
-      </c>
-      <c r="B11" s="151"/>
+        <v>451</v>
+      </c>
+      <c r="B11" s="153"/>
       <c r="C11" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="159"/>
+        <v>304</v>
+      </c>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="158"/>
       <c r="H11" s="49" t="str">
         <f t="shared" si="0"/>
         <v>未使用のクーポン画面が日本語で表示されること</v>
@@ -9959,16 +10678,16 @@
     </row>
     <row r="12" spans="1:12" ht="28.8" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>457</v>
-      </c>
-      <c r="B12" s="151"/>
+        <v>452</v>
+      </c>
+      <c r="B12" s="153"/>
       <c r="C12" s="57" t="s">
-        <v>414</v>
-      </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="159"/>
+        <v>409</v>
+      </c>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="158"/>
       <c r="H12" s="49" t="str">
         <f t="shared" si="0"/>
         <v>クーポン(使用待ち)画面が日本語で表示されること</v>
@@ -9980,16 +10699,16 @@
     </row>
     <row r="13" spans="1:12" ht="28.8" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="B13" s="151"/>
+        <v>453</v>
+      </c>
+      <c r="B13" s="153"/>
       <c r="C13" s="57" t="s">
-        <v>415</v>
-      </c>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="159"/>
+        <v>410</v>
+      </c>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="49" t="str">
         <f t="shared" si="0"/>
         <v>クーポン(全部)画面が日本語で表示されること</v>
@@ -10001,16 +10720,16 @@
     </row>
     <row r="14" spans="1:12" ht="28.8" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>459</v>
-      </c>
-      <c r="B14" s="151"/>
+        <v>454</v>
+      </c>
+      <c r="B14" s="153"/>
       <c r="C14" s="57" t="s">
-        <v>454</v>
-      </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="159"/>
+        <v>449</v>
+      </c>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="158"/>
       <c r="H14" s="49" t="str">
         <f t="shared" si="0"/>
         <v>ブックマークリスト画面が日本語で表示されること</v>
@@ -10022,16 +10741,16 @@
     </row>
     <row r="15" spans="1:12" ht="28.8" customHeight="1">
       <c r="A15" s="55" t="s">
-        <v>460</v>
-      </c>
-      <c r="B15" s="151"/>
+        <v>455</v>
+      </c>
+      <c r="B15" s="153"/>
       <c r="C15" s="57" t="s">
-        <v>451</v>
-      </c>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="159"/>
+        <v>446</v>
+      </c>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="158"/>
       <c r="H15" s="49" t="str">
         <f t="shared" si="0"/>
         <v>マイページ画面が日本語で表示されること</v>
@@ -10043,16 +10762,16 @@
     </row>
     <row r="16" spans="1:12" ht="28.8" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="151"/>
+        <v>456</v>
+      </c>
+      <c r="B16" s="153"/>
       <c r="C16" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="159"/>
+        <v>435</v>
+      </c>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="158"/>
       <c r="H16" s="49" t="str">
         <f t="shared" si="0"/>
         <v>個人情報設定画面が日本語で表示されること</v>
@@ -10064,16 +10783,16 @@
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
       <c r="A17" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="B17" s="151"/>
+        <v>457</v>
+      </c>
+      <c r="B17" s="153"/>
       <c r="C17" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="159"/>
+        <v>441</v>
+      </c>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="158"/>
       <c r="H17" s="49" t="str">
         <f t="shared" si="0"/>
         <v>My口コミ画面が日本語で表示されること</v>
@@ -10085,16 +10804,16 @@
     </row>
     <row r="18" spans="1:12" ht="28.8" customHeight="1">
       <c r="A18" s="55" t="s">
-        <v>463</v>
-      </c>
-      <c r="B18" s="150"/>
+        <v>458</v>
+      </c>
+      <c r="B18" s="152"/>
       <c r="C18" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="160"/>
+        <v>434</v>
+      </c>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="49" t="str">
         <f t="shared" si="0"/>
         <v>パスワード初期化画面が日本語で表示されること</v>
@@ -10106,25 +10825,25 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" customHeight="1">
       <c r="A19" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="B19" s="153" t="s">
-        <v>476</v>
+        <v>460</v>
+      </c>
+      <c r="B19" s="154" t="s">
+        <v>471</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="154" t="s">
-        <v>477</v>
-      </c>
-      <c r="E19" s="155" t="s">
-        <v>287</v>
-      </c>
-      <c r="F19" s="153" t="s">
-        <v>480</v>
-      </c>
-      <c r="G19" s="158" t="s">
-        <v>479</v>
+        <v>233</v>
+      </c>
+      <c r="D19" s="160" t="s">
+        <v>472</v>
+      </c>
+      <c r="E19" s="161" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="154" t="s">
+        <v>475</v>
+      </c>
+      <c r="G19" s="157" t="s">
+        <v>474</v>
       </c>
       <c r="H19" s="49" t="str">
         <f>C19&amp;"画面が中国語で表示されること"</f>
@@ -10137,16 +10856,16 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" customHeight="1">
       <c r="A20" s="55" t="s">
-        <v>466</v>
-      </c>
-      <c r="B20" s="151"/>
+        <v>461</v>
+      </c>
+      <c r="B20" s="153"/>
       <c r="C20" s="57" t="s">
-        <v>450</v>
-      </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="159"/>
+        <v>445</v>
+      </c>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="49" t="str">
         <f t="shared" ref="H20:H29" si="1">C20&amp;"画面が中国語で表示されること"</f>
         <v>店舗詳細画面が中国語で表示されること</v>
@@ -10158,16 +10877,16 @@
     </row>
     <row r="21" spans="1:12" ht="23.4" customHeight="1">
       <c r="A21" s="55" t="s">
-        <v>467</v>
-      </c>
-      <c r="B21" s="151"/>
+        <v>462</v>
+      </c>
+      <c r="B21" s="153"/>
       <c r="C21" s="81" t="s">
-        <v>453</v>
-      </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="159"/>
+        <v>448</v>
+      </c>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="158"/>
       <c r="H21" s="49" t="str">
         <f t="shared" si="1"/>
         <v>全て口コミ画面が中国語で表示されること</v>
@@ -10179,16 +10898,16 @@
     </row>
     <row r="22" spans="1:12" ht="23.4" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="B22" s="151"/>
+        <v>463</v>
+      </c>
+      <c r="B22" s="153"/>
       <c r="C22" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="159"/>
+        <v>304</v>
+      </c>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="49" t="str">
         <f t="shared" si="1"/>
         <v>未使用のクーポン画面が中国語で表示されること</v>
@@ -10200,16 +10919,16 @@
     </row>
     <row r="23" spans="1:12" ht="23.4" customHeight="1">
       <c r="A23" s="55" t="s">
-        <v>469</v>
-      </c>
-      <c r="B23" s="151"/>
+        <v>464</v>
+      </c>
+      <c r="B23" s="153"/>
       <c r="C23" s="57" t="s">
-        <v>414</v>
-      </c>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="159"/>
+        <v>409</v>
+      </c>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="49" t="str">
         <f t="shared" si="1"/>
         <v>クーポン(使用待ち)画面が中国語で表示されること</v>
@@ -10221,16 +10940,16 @@
     </row>
     <row r="24" spans="1:12" ht="23.4" customHeight="1">
       <c r="A24" s="55" t="s">
-        <v>470</v>
-      </c>
-      <c r="B24" s="151"/>
+        <v>465</v>
+      </c>
+      <c r="B24" s="153"/>
       <c r="C24" s="57" t="s">
-        <v>415</v>
-      </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="159"/>
+        <v>410</v>
+      </c>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="158"/>
       <c r="H24" s="49" t="str">
         <f t="shared" si="1"/>
         <v>クーポン(全部)画面が中国語で表示されること</v>
@@ -10242,16 +10961,16 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" customHeight="1">
       <c r="A25" s="55" t="s">
-        <v>471</v>
-      </c>
-      <c r="B25" s="151"/>
+        <v>466</v>
+      </c>
+      <c r="B25" s="153"/>
       <c r="C25" s="57" t="s">
-        <v>454</v>
-      </c>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="159"/>
+        <v>449</v>
+      </c>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="158"/>
       <c r="H25" s="49" t="str">
         <f t="shared" si="1"/>
         <v>ブックマークリスト画面が中国語で表示されること</v>
@@ -10263,16 +10982,16 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" customHeight="1">
       <c r="A26" s="55" t="s">
-        <v>472</v>
-      </c>
-      <c r="B26" s="151"/>
+        <v>467</v>
+      </c>
+      <c r="B26" s="153"/>
       <c r="C26" s="57" t="s">
-        <v>451</v>
-      </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="159"/>
+        <v>446</v>
+      </c>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="158"/>
       <c r="H26" s="49" t="str">
         <f t="shared" si="1"/>
         <v>マイページ画面が中国語で表示されること</v>
@@ -10284,16 +11003,16 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" customHeight="1">
       <c r="A27" s="55" t="s">
-        <v>473</v>
-      </c>
-      <c r="B27" s="151"/>
+        <v>468</v>
+      </c>
+      <c r="B27" s="153"/>
       <c r="C27" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="159"/>
+        <v>435</v>
+      </c>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="158"/>
       <c r="H27" s="49" t="str">
         <f t="shared" si="1"/>
         <v>個人情報設定画面が中国語で表示されること</v>
@@ -10305,16 +11024,16 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" customHeight="1">
       <c r="A28" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B28" s="151"/>
+        <v>469</v>
+      </c>
+      <c r="B28" s="153"/>
       <c r="C28" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="159"/>
+        <v>441</v>
+      </c>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="49" t="str">
         <f t="shared" si="1"/>
         <v>My口コミ画面が中国語で表示されること</v>
@@ -10326,16 +11045,16 @@
     </row>
     <row r="29" spans="1:12" ht="23.4" customHeight="1">
       <c r="A29" s="55" t="s">
-        <v>475</v>
-      </c>
-      <c r="B29" s="150"/>
+        <v>470</v>
+      </c>
+      <c r="B29" s="152"/>
       <c r="C29" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="160"/>
+        <v>434</v>
+      </c>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="159"/>
       <c r="H29" s="49" t="str">
         <f t="shared" si="1"/>
         <v>パスワード初期化画面が中国語で表示されること</v>
@@ -10365,18 +11084,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F8:F18"/>
-    <mergeCell ref="G8:G18"/>
-    <mergeCell ref="G19:G29"/>
-    <mergeCell ref="D19:D29"/>
-    <mergeCell ref="E19:E29"/>
-    <mergeCell ref="F19:F29"/>
-    <mergeCell ref="B8:B18"/>
-    <mergeCell ref="D8:D18"/>
-    <mergeCell ref="E8:E18"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
@@ -10389,8 +11096,31 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B8:B18"/>
+    <mergeCell ref="D8:D18"/>
+    <mergeCell ref="E8:E18"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="F8:F18"/>
+    <mergeCell ref="G8:G18"/>
+    <mergeCell ref="G19:G29"/>
+    <mergeCell ref="D19:D29"/>
+    <mergeCell ref="E19:E29"/>
+    <mergeCell ref="F19:F29"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I30" xr:uid="{D0222D4A-F82B-4860-BF4A-EC66E37964EB}">
       <formula1>"OK,NG,N/A"</formula1>

--- a/結合テスト/テストケース/ものづくり結合テスト_アプリ_Android.xlsx
+++ b/結合テスト/テストケース/ものづくり結合テスト_アプリ_Android.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itcc-admin\Desktop\结合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86830B0-C95A-4B1F-903C-F3B934434F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1E43F-F4E5-4A45-8108-0961B7B611B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="667" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="489">
   <si>
     <t>アプリ</t>
   </si>
@@ -3653,6 +3653,9 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>NG</t>
   </si>
 </sst>
 </file>
@@ -4593,7 +4596,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4815,79 +4818,81 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4903,18 +4908,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4951,40 +5005,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4996,9 +5017,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5008,9 +5026,24 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5026,35 +5059,8 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5062,7 +5068,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3 3" xfId="2" xr:uid="{101C33D8-BABC-471A-9CA5-44C88605D75F}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -5192,27 +5198,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -5228,27 +5213,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5581,127 +5545,127 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="90">
         <v>6</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="96"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="83"/>
-      <c r="B5" s="90"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="95"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="83"/>
-      <c r="B6" s="90" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="99" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="97"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="95"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="83"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="97"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="95"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="83"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="97"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="95"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="83"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="97"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="95"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="83"/>
-      <c r="B10" s="90"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="97"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="95"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="83"/>
-      <c r="B11" s="90"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="97"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="95"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="83"/>
-      <c r="B12" s="90" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="99" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="97"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="83"/>
-      <c r="B13" s="90"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="97"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="95"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="83"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="106" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -5710,60 +5674,60 @@
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="93">
         <v>3</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="99"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="89"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="84"/>
-      <c r="B16" s="90" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="99" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="99"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="89"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="84"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="99"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="89"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="84"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="99"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="89"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="84"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="99"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="89"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="103" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -5772,136 +5736,136 @@
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="93">
         <v>6</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="99"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="89"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="83"/>
-      <c r="B21" s="90" t="s">
+      <c r="A21" s="103"/>
+      <c r="B21" s="99" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="99"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="89"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="83"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="99"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="89"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="83"/>
-      <c r="B23" s="90"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="99"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="89"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="83"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="99"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="89"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="83"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="99"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="89"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="83"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="99"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="89"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="83"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="99"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="89"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="83"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="99"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="83"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="99"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="89"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="83"/>
+      <c r="A30" s="103"/>
       <c r="B30" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="99"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="89"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="83"/>
+      <c r="A31" s="103"/>
       <c r="B31" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="99"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="89"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="103" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -5910,76 +5874,76 @@
       <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="94">
+      <c r="D32" s="93">
         <v>3</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="99"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="89"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="83"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="99"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="89"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="83"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="99"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="89"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="83"/>
+      <c r="A35" s="103"/>
       <c r="B35" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="59" t="s">
         <v>411</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="99"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="89"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="91">
+      <c r="D36" s="90">
         <v>1</v>
       </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="96"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="94"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="83"/>
-      <c r="B37" s="89"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="97"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="103" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -5988,67 +5952,67 @@
       <c r="C38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="91">
+      <c r="D38" s="90">
         <v>3</v>
       </c>
-      <c r="E38" s="91"/>
-      <c r="F38" s="96"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="94"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="83"/>
-      <c r="B39" s="90" t="s">
+      <c r="A39" s="103"/>
+      <c r="B39" s="99" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="97"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="95"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="83"/>
-      <c r="B40" s="90"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="97"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="95"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="83"/>
-      <c r="B41" s="90" t="s">
+      <c r="A41" s="103"/>
+      <c r="B41" s="99" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="97"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="95"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="83"/>
-      <c r="B42" s="90"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="97"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="95"/>
     </row>
     <row r="43" spans="1:6" ht="20.399999999999999" thickBot="1">
-      <c r="A43" s="85"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="101"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="96"/>
     </row>
     <row r="44" spans="1:6">
       <c r="D44" s="27"/>
@@ -6097,45 +6061,45 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="94">
+      <c r="D49" s="93">
         <v>2</v>
       </c>
-      <c r="E49" s="94"/>
-      <c r="F49" s="99"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="89"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="86"/>
-      <c r="B50" s="90"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="99"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="89"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="86"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="99"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="89"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="105" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -6144,119 +6108,119 @@
       <c r="C52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="94">
+      <c r="D52" s="93">
         <v>6</v>
       </c>
-      <c r="E52" s="94"/>
-      <c r="F52" s="99"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="89"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="86"/>
-      <c r="B53" s="90" t="s">
+      <c r="A53" s="105"/>
+      <c r="B53" s="99" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="99"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="89"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="86"/>
-      <c r="B54" s="90"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="99"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="89"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="86"/>
-      <c r="B55" s="90" t="s">
+      <c r="A55" s="105"/>
+      <c r="B55" s="99" t="s">
         <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="99"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="89"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="86"/>
-      <c r="B56" s="90"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="99"/>
       <c r="C56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="99"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="89"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="86"/>
-      <c r="B57" s="90"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="99"/>
       <c r="C57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="99"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="89"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="86"/>
-      <c r="B58" s="90"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="99"/>
       <c r="C58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="99"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="89"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="86"/>
-      <c r="B59" s="90"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="99"/>
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="99"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="89"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="86"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="99"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="89"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="86"/>
-      <c r="B61" s="90" t="s">
+      <c r="A61" s="105"/>
+      <c r="B61" s="99" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="99"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="89"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="86"/>
-      <c r="B62" s="90"/>
+      <c r="A62" s="105"/>
+      <c r="B62" s="99"/>
       <c r="C62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="99"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="89"/>
     </row>
     <row r="63" spans="1:6" ht="20.399999999999999" thickBot="1">
       <c r="A63" s="32" t="s">
@@ -6316,179 +6280,179 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="94">
+      <c r="D69" s="93">
         <v>3</v>
       </c>
-      <c r="E69" s="94"/>
-      <c r="F69" s="99"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="89"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="87"/>
-      <c r="B70" s="90"/>
+      <c r="A70" s="100"/>
+      <c r="B70" s="99"/>
       <c r="C70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="99"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="89"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="87"/>
+      <c r="A71" s="100"/>
       <c r="B71" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="99"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="89"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="87"/>
+      <c r="A72" s="100"/>
       <c r="B72" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="99"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="89"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="90" t="s">
+      <c r="B73" s="99" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="94">
+      <c r="D73" s="93">
         <v>4</v>
       </c>
-      <c r="E73" s="94"/>
-      <c r="F73" s="99"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="89"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="87"/>
-      <c r="B74" s="90"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="99"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="89"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="87"/>
-      <c r="B75" s="90"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="99"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="89"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="87"/>
-      <c r="B76" s="90"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="99"/>
       <c r="C76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="94"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="99"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="89"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="87"/>
+      <c r="A77" s="100"/>
       <c r="B77" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="94"/>
-      <c r="E77" s="94"/>
-      <c r="F77" s="99"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="89"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="87"/>
-      <c r="B78" s="90" t="s">
+      <c r="A78" s="100"/>
+      <c r="B78" s="99" t="s">
         <v>95</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="94"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="99"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="89"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="87"/>
-      <c r="B79" s="90"/>
+      <c r="A79" s="100"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="94"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="99"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="89"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="87"/>
-      <c r="B80" s="90"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="99"/>
       <c r="C80" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="99"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="89"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="87"/>
-      <c r="B81" s="90"/>
+      <c r="A81" s="100"/>
+      <c r="B81" s="99"/>
       <c r="C81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="99"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="89"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="87"/>
-      <c r="B82" s="90" t="s">
+      <c r="A82" s="100"/>
+      <c r="B82" s="99" t="s">
         <v>100</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="94"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="99"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="89"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="87"/>
-      <c r="B83" s="90"/>
+      <c r="A83" s="100"/>
+      <c r="B83" s="99"/>
       <c r="C83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="94"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="99"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="89"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="100" t="s">
         <v>103</v>
       </c>
       <c r="B84" s="23" t="s">
@@ -6497,62 +6461,62 @@
       <c r="C84" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="94">
+      <c r="D84" s="93">
         <v>6</v>
       </c>
-      <c r="E84" s="94"/>
-      <c r="F84" s="100" t="s">
+      <c r="E84" s="93"/>
+      <c r="F84" s="88" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="87"/>
+      <c r="A85" s="100"/>
       <c r="B85" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="100"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="88"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="87"/>
+      <c r="A86" s="100"/>
       <c r="B86" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="100"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="88"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="87"/>
-      <c r="B87" s="90" t="s">
+      <c r="A87" s="100"/>
+      <c r="B87" s="99" t="s">
         <v>111</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="94"/>
-      <c r="E87" s="94"/>
-      <c r="F87" s="100"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="88"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="87"/>
-      <c r="B88" s="90"/>
+      <c r="A88" s="100"/>
+      <c r="B88" s="99"/>
       <c r="C88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="94"/>
-      <c r="E88" s="94"/>
-      <c r="F88" s="100"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="88"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="100" t="s">
         <v>67</v>
       </c>
       <c r="B89" s="23" t="s">
@@ -6561,205 +6525,205 @@
       <c r="C89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D89" s="94">
+      <c r="D89" s="93">
         <v>8</v>
       </c>
-      <c r="E89" s="94"/>
-      <c r="F89" s="99" t="s">
+      <c r="E89" s="93"/>
+      <c r="F89" s="89" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="87"/>
+      <c r="A90" s="100"/>
       <c r="B90" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="94"/>
-      <c r="E90" s="94"/>
-      <c r="F90" s="99"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="89"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="87"/>
-      <c r="B91" s="90" t="s">
+      <c r="A91" s="100"/>
+      <c r="B91" s="99" t="s">
         <v>72</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D91" s="94"/>
-      <c r="E91" s="94"/>
-      <c r="F91" s="99"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="89"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="87"/>
-      <c r="B92" s="90"/>
+      <c r="A92" s="100"/>
+      <c r="B92" s="99"/>
       <c r="C92" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="94"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="99"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="89"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="87"/>
-      <c r="B93" s="90"/>
+      <c r="A93" s="100"/>
+      <c r="B93" s="99"/>
       <c r="C93" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="94"/>
-      <c r="E93" s="94"/>
-      <c r="F93" s="99"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="89"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="87"/>
-      <c r="B94" s="90"/>
+      <c r="A94" s="100"/>
+      <c r="B94" s="99"/>
       <c r="C94" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="94"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="99"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="89"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="87"/>
-      <c r="B95" s="90"/>
+      <c r="A95" s="100"/>
+      <c r="B95" s="99"/>
       <c r="C95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="94"/>
-      <c r="E95" s="94"/>
-      <c r="F95" s="99"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="89"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="87"/>
-      <c r="B96" s="90"/>
+      <c r="A96" s="100"/>
+      <c r="B96" s="99"/>
       <c r="C96" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="94"/>
-      <c r="E96" s="94"/>
-      <c r="F96" s="99"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="89"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="87"/>
-      <c r="B97" s="90" t="s">
+      <c r="A97" s="100"/>
+      <c r="B97" s="99" t="s">
         <v>80</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="94"/>
-      <c r="E97" s="94"/>
-      <c r="F97" s="99"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="89"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="87"/>
-      <c r="B98" s="90"/>
+      <c r="A98" s="100"/>
+      <c r="B98" s="99"/>
       <c r="C98" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="94"/>
-      <c r="E98" s="94"/>
-      <c r="F98" s="99"/>
+      <c r="D98" s="93"/>
+      <c r="E98" s="93"/>
+      <c r="F98" s="89"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="87"/>
-      <c r="B99" s="90" t="s">
+      <c r="A99" s="100"/>
+      <c r="B99" s="99" t="s">
         <v>123</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="99"/>
+      <c r="D99" s="93"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="89"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="87"/>
-      <c r="B100" s="90"/>
+      <c r="A100" s="100"/>
+      <c r="B100" s="99"/>
       <c r="C100" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="94"/>
-      <c r="E100" s="94"/>
-      <c r="F100" s="99"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="89"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="87"/>
-      <c r="B101" s="90" t="s">
+      <c r="A101" s="100"/>
+      <c r="B101" s="99" t="s">
         <v>124</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D101" s="94"/>
-      <c r="E101" s="94"/>
-      <c r="F101" s="99"/>
+      <c r="D101" s="93"/>
+      <c r="E101" s="93"/>
+      <c r="F101" s="89"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="87"/>
-      <c r="B102" s="90"/>
+      <c r="A102" s="100"/>
+      <c r="B102" s="99"/>
       <c r="C102" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="94"/>
-      <c r="E102" s="94"/>
-      <c r="F102" s="99"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="89"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="87"/>
-      <c r="B103" s="90"/>
+      <c r="A103" s="100"/>
+      <c r="B103" s="99"/>
       <c r="C103" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D103" s="94"/>
-      <c r="E103" s="94"/>
-      <c r="F103" s="99"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="89"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="87"/>
-      <c r="B104" s="90" t="s">
+      <c r="A104" s="100"/>
+      <c r="B104" s="99" t="s">
         <v>125</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="94"/>
-      <c r="E104" s="94"/>
-      <c r="F104" s="99"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="89"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="87"/>
-      <c r="B105" s="90"/>
+      <c r="A105" s="100"/>
+      <c r="B105" s="99"/>
       <c r="C105" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="94"/>
-      <c r="E105" s="94"/>
-      <c r="F105" s="99"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="89"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="87"/>
-      <c r="B106" s="90"/>
+      <c r="A106" s="100"/>
+      <c r="B106" s="99"/>
       <c r="C106" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D106" s="94"/>
-      <c r="E106" s="94"/>
-      <c r="F106" s="99"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="89"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="87"/>
-      <c r="B107" s="90"/>
+      <c r="A107" s="100"/>
+      <c r="B107" s="99"/>
       <c r="C107" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D107" s="94"/>
-      <c r="E107" s="94"/>
-      <c r="F107" s="99"/>
+      <c r="D107" s="93"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="89"/>
     </row>
     <row r="108" spans="1:6" ht="20.399999999999999" thickBot="1">
       <c r="A108" s="42" t="s">
@@ -6779,25 +6743,41 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="F89:F107"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F62"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="F73:F83"/>
-    <mergeCell ref="F4:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E4:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A62"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A83"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A107"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="D4:D14"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D62"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D73:D83"/>
     <mergeCell ref="D84:D88"/>
     <mergeCell ref="D89:D107"/>
     <mergeCell ref="B78:B81"/>
@@ -6814,41 +6794,25 @@
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D62"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D73:D83"/>
-    <mergeCell ref="D4:D14"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A107"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A62"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A83"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E4:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F4:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="F89:F107"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F62"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F73:F83"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6869,14 +6833,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="102" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="103"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="8"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -6888,14 +6852,14 @@
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="106">
+      <c r="B2" s="108"/>
+      <c r="C2" s="120">
         <v>45592</v>
       </c>
-      <c r="D2" s="107"/>
+      <c r="D2" s="121"/>
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6992,16 +6956,16 @@
       <c r="C7" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="102" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="103"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="8"/>
       <c r="K7" s="13" t="s">
         <v>145</v>
@@ -7019,14 +6983,14 @@
       <c r="C8" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="102" t="s">
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="103"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="108"/>
       <c r="J8" s="15"/>
       <c r="K8" s="13" t="s">
         <v>146</v>
@@ -7038,12 +7002,12 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="103"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="108"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -7053,12 +7017,12 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="103"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -7068,12 +7032,12 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="103"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="108"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -7083,12 +7047,12 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="103"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -7098,12 +7062,12 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="103"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="8"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -7456,6 +7420,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="A5:A6"/>
@@ -7472,13 +7443,6 @@
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7515,68 +7479,68 @@
       <c r="A1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="137" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="120" t="s">
+      <c r="L2" s="139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="136"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="121"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="136"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="50" t="s">
         <v>162</v>
       </c>
@@ -7586,23 +7550,23 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="122"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="1:12" ht="57.6">
       <c r="A5" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="149" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -7620,10 +7584,10 @@
       <c r="H5" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="84">
         <v>45608</v>
       </c>
       <c r="K5" s="45" t="s">
@@ -7635,8 +7599,8 @@
       <c r="A6" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="54" t="s">
         <v>188</v>
       </c>
@@ -7652,10 +7616,10 @@
       <c r="H6" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J6" s="166">
+      <c r="J6" s="84">
         <v>45608</v>
       </c>
       <c r="K6" s="45" t="s">
@@ -7667,8 +7631,8 @@
       <c r="A7" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="134"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="151"/>
       <c r="D7" s="54" t="s">
         <v>189</v>
       </c>
@@ -7684,10 +7648,10 @@
       <c r="H7" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="165" t="s">
+      <c r="I7" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J7" s="166">
+      <c r="J7" s="84">
         <v>45608</v>
       </c>
       <c r="K7" s="45" t="s">
@@ -7720,10 +7684,10 @@
       <c r="H8" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="165" t="s">
+      <c r="I8" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J8" s="166">
+      <c r="J8" s="84">
         <v>45608</v>
       </c>
       <c r="K8" s="45" t="s">
@@ -7735,10 +7699,10 @@
       <c r="A9" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="143" t="s">
         <v>171</v>
       </c>
       <c r="D9" s="56" t="s">
@@ -7756,10 +7720,10 @@
       <c r="H9" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="165" t="s">
+      <c r="I9" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="166">
+      <c r="J9" s="84">
         <v>45608</v>
       </c>
       <c r="K9" s="45" t="s">
@@ -7771,8 +7735,8 @@
       <c r="A10" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="56" t="s">
         <v>218</v>
       </c>
@@ -7786,10 +7750,10 @@
         <v>330</v>
       </c>
       <c r="H10" s="53"/>
-      <c r="I10" s="165" t="s">
+      <c r="I10" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J10" s="166">
+      <c r="J10" s="84">
         <v>45608</v>
       </c>
       <c r="K10" s="45" t="s">
@@ -7801,8 +7765,8 @@
       <c r="A11" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="127"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="56" t="s">
         <v>220</v>
       </c>
@@ -7818,10 +7782,10 @@
       <c r="H11" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="I11" s="165" t="s">
+      <c r="I11" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J11" s="166">
+      <c r="J11" s="84">
         <v>45608</v>
       </c>
       <c r="K11" s="45" t="s">
@@ -7833,8 +7797,8 @@
       <c r="A12" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="127"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="56" t="s">
         <v>221</v>
       </c>
@@ -7850,10 +7814,10 @@
       <c r="H12" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="I12" s="165" t="s">
+      <c r="I12" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J12" s="166">
+      <c r="J12" s="84">
         <v>45608</v>
       </c>
       <c r="K12" s="45" t="s">
@@ -7865,8 +7829,8 @@
       <c r="A13" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="127"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="144"/>
       <c r="D13" s="56" t="s">
         <v>222</v>
       </c>
@@ -7882,10 +7846,10 @@
       <c r="H13" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="165" t="s">
+      <c r="I13" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J13" s="166">
+      <c r="J13" s="84">
         <v>45608</v>
       </c>
       <c r="K13" s="45" t="s">
@@ -7897,8 +7861,8 @@
       <c r="A14" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="56" t="s">
         <v>223</v>
       </c>
@@ -7914,10 +7878,10 @@
       <c r="H14" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="165" t="s">
+      <c r="I14" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J14" s="166">
+      <c r="J14" s="84">
         <v>45608</v>
       </c>
       <c r="K14" s="45" t="s">
@@ -7929,8 +7893,8 @@
       <c r="A15" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="127"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="144"/>
       <c r="D15" s="56" t="s">
         <v>479</v>
       </c>
@@ -7946,10 +7910,10 @@
       <c r="H15" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="I15" s="165" t="s">
+      <c r="I15" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J15" s="166">
+      <c r="J15" s="84">
         <v>45608</v>
       </c>
       <c r="K15" s="45" t="s">
@@ -7961,8 +7925,8 @@
       <c r="A16" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="127"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="56" t="s">
         <v>228</v>
       </c>
@@ -7978,10 +7942,10 @@
       <c r="H16" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="I16" s="165" t="s">
+      <c r="I16" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J16" s="166">
+      <c r="J16" s="84">
         <v>45608</v>
       </c>
       <c r="K16" s="45" t="s">
@@ -7993,8 +7957,8 @@
       <c r="A17" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="127"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="56" t="s">
         <v>229</v>
       </c>
@@ -8010,10 +7974,10 @@
       <c r="H17" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="165" t="s">
+      <c r="I17" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J17" s="166">
+      <c r="J17" s="84">
         <v>45608</v>
       </c>
       <c r="K17" s="45" t="s">
@@ -8025,8 +7989,8 @@
       <c r="A18" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="127"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="56" t="s">
         <v>231</v>
       </c>
@@ -8042,10 +8006,10 @@
       <c r="H18" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="I18" s="165" t="s">
+      <c r="I18" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J18" s="166">
+      <c r="J18" s="84">
         <v>45608</v>
       </c>
       <c r="K18" s="45" t="s">
@@ -8057,8 +8021,8 @@
       <c r="A19" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="127"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="63" t="s">
         <v>230</v>
       </c>
@@ -8074,10 +8038,10 @@
       <c r="H19" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="I19" s="165" t="s">
+      <c r="I19" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J19" s="166">
+      <c r="J19" s="84">
         <v>45608</v>
       </c>
       <c r="K19" s="45" t="s">
@@ -8089,8 +8053,8 @@
       <c r="A20" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="145"/>
       <c r="D20" s="56" t="s">
         <v>232</v>
       </c>
@@ -8106,10 +8070,10 @@
       <c r="H20" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="I20" s="165" t="s">
+      <c r="I20" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J20" s="166">
+      <c r="J20" s="84">
         <v>45608</v>
       </c>
       <c r="K20" s="45" t="s">
@@ -8121,10 +8085,10 @@
       <c r="A21" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="142" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="143" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="56" t="s">
@@ -8142,10 +8106,10 @@
       <c r="H21" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="165" t="s">
+      <c r="I21" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J21" s="166">
+      <c r="J21" s="84">
         <v>45608</v>
       </c>
       <c r="K21" s="45" t="s">
@@ -8157,8 +8121,8 @@
       <c r="A22" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="127"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="56" t="s">
         <v>192</v>
       </c>
@@ -8172,10 +8136,10 @@
       <c r="H22" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="I22" s="165" t="s">
+      <c r="I22" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J22" s="166">
+      <c r="J22" s="84">
         <v>45608</v>
       </c>
       <c r="K22" s="45" t="s">
@@ -8187,8 +8151,8 @@
       <c r="A23" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="128"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="56" t="s">
         <v>193</v>
       </c>
@@ -8204,10 +8168,10 @@
       <c r="H23" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="165" t="s">
+      <c r="I23" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J23" s="166">
+      <c r="J23" s="84">
         <v>45608</v>
       </c>
       <c r="K23" s="45" t="s">
@@ -8219,10 +8183,10 @@
       <c r="A24" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="146" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="49" t="s">
@@ -8240,10 +8204,10 @@
       <c r="H24" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="I24" s="165" t="s">
+      <c r="I24" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J24" s="166">
+      <c r="J24" s="84">
         <v>45608</v>
       </c>
       <c r="K24" s="45" t="s">
@@ -8255,8 +8219,8 @@
       <c r="A25" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="130"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="49" t="s">
         <v>195</v>
       </c>
@@ -8272,10 +8236,10 @@
       <c r="H25" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="165" t="s">
+      <c r="I25" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J25" s="166">
+      <c r="J25" s="84">
         <v>45608</v>
       </c>
       <c r="K25" s="45" t="s">
@@ -8287,8 +8251,8 @@
       <c r="A26" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="131"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="148"/>
       <c r="D26" s="49" t="s">
         <v>196</v>
       </c>
@@ -8304,10 +8268,10 @@
       <c r="H26" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="165" t="s">
+      <c r="I26" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J26" s="166">
+      <c r="J26" s="84">
         <v>45608</v>
       </c>
       <c r="K26" s="45" t="s">
@@ -8317,15 +8281,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="B9:B20"/>
@@ -8336,17 +8291,26 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <conditionalFormatting sqref="I5:I26">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
-      <formula>"N/A"</formula>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8388,68 +8352,68 @@
       <c r="A1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="137" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="120" t="s">
+      <c r="L2" s="139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="136"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="121"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="136"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -8459,23 +8423,23 @@
       <c r="D4" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="138"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="121"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="153" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="153" t="s">
         <v>233</v>
       </c>
       <c r="D5" s="72" t="s">
@@ -8487,16 +8451,16 @@
       <c r="F5" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="148" t="s">
+      <c r="G5" s="154" t="s">
         <v>244</v>
       </c>
       <c r="H5" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="84">
         <v>45608</v>
       </c>
       <c r="K5" s="45" t="s">
@@ -8508,8 +8472,8 @@
       <c r="A6" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="82" t="s">
         <v>252</v>
       </c>
@@ -8519,14 +8483,14 @@
       <c r="F6" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="148"/>
+      <c r="G6" s="154"/>
       <c r="H6" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J6" s="166">
+      <c r="J6" s="84">
         <v>45608</v>
       </c>
       <c r="K6" s="45" t="s">
@@ -8538,8 +8502,8 @@
       <c r="A7" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
       <c r="D7" s="82" t="s">
         <v>253</v>
       </c>
@@ -8549,14 +8513,14 @@
       <c r="F7" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="148"/>
+      <c r="G7" s="154"/>
       <c r="H7" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="I7" s="165" t="s">
+      <c r="I7" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J7" s="166">
+      <c r="J7" s="84">
         <v>45608</v>
       </c>
       <c r="K7" s="45" t="s">
@@ -8568,10 +8532,10 @@
       <c r="A8" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="153" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="147"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="72" t="s">
         <v>261</v>
       </c>
@@ -8587,10 +8551,10 @@
       <c r="H8" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="I8" s="165" t="s">
+      <c r="I8" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J8" s="166">
+      <c r="J8" s="84">
         <v>45608</v>
       </c>
       <c r="K8" s="45" t="s">
@@ -8602,8 +8566,8 @@
       <c r="A9" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
       <c r="D9" s="72" t="s">
         <v>256</v>
       </c>
@@ -8619,10 +8583,10 @@
       <c r="H9" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="I9" s="165" t="s">
+      <c r="I9" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="166">
+      <c r="J9" s="84">
         <v>45608</v>
       </c>
       <c r="K9" s="45" t="s">
@@ -8634,10 +8598,10 @@
       <c r="A10" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="155" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="147"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="72" t="s">
         <v>258</v>
       </c>
@@ -8653,10 +8617,10 @@
       <c r="H10" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="I10" s="165" t="s">
+      <c r="I10" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J10" s="166">
+      <c r="J10" s="84">
         <v>45608</v>
       </c>
       <c r="K10" s="45" t="s">
@@ -8668,8 +8632,8 @@
       <c r="A11" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="147"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="153"/>
       <c r="D11" s="72" t="s">
         <v>259</v>
       </c>
@@ -8685,10 +8649,10 @@
       <c r="H11" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="165" t="s">
+      <c r="I11" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J11" s="166">
+      <c r="J11" s="84">
         <v>45608</v>
       </c>
       <c r="K11" s="45" t="s">
@@ -8701,6 +8665,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C5:C11"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:D3"/>
@@ -8711,22 +8681,16 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C5:C11"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <conditionalFormatting sqref="I5:I11">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8769,68 +8733,68 @@
       <c r="A1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="138" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="137" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="120" t="s">
+      <c r="L2" s="139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="136"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="121"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="136"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -8840,23 +8804,23 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="122"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="A5" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="156" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="56" t="s">
@@ -8874,10 +8838,10 @@
       <c r="H5" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="84">
         <v>45608</v>
       </c>
       <c r="K5" s="45" t="s">
@@ -8885,12 +8849,12 @@
       </c>
       <c r="L5" s="53"/>
     </row>
-    <row r="6" spans="1:12" ht="43.2">
+    <row r="6" spans="1:12" ht="28.8">
       <c r="A6" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="56" t="s">
         <v>299</v>
       </c>
@@ -8906,10 +8870,10 @@
       <c r="H6" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J6" s="166">
+      <c r="J6" s="84">
         <v>45608</v>
       </c>
       <c r="K6" s="45" t="s">
@@ -8921,7 +8885,7 @@
       <c r="A7" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="156" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="57" t="s">
@@ -8942,10 +8906,10 @@
       <c r="H7" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="I7" s="165" t="s">
+      <c r="I7" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J7" s="166">
+      <c r="J7" s="84">
         <v>45608</v>
       </c>
       <c r="K7" s="45" t="s">
@@ -8957,7 +8921,7 @@
       <c r="A8" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="153"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="81" t="s">
         <v>448</v>
       </c>
@@ -8976,10 +8940,10 @@
       <c r="H8" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="I8" s="165" t="s">
+      <c r="I8" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J8" s="166">
+      <c r="J8" s="84">
         <v>45608</v>
       </c>
       <c r="K8" s="45" t="s">
@@ -8991,8 +8955,8 @@
       <c r="A9" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="151" t="s">
+      <c r="B9" s="158"/>
+      <c r="C9" s="156" t="s">
         <v>296</v>
       </c>
       <c r="D9" s="67" t="s">
@@ -9010,10 +8974,10 @@
       <c r="H9" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="I9" s="165" t="s">
+      <c r="I9" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="166">
+      <c r="J9" s="84">
         <v>45608</v>
       </c>
       <c r="K9" s="45" t="s">
@@ -9022,29 +8986,29 @@
       <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" ht="15.6">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="169" t="s">
+      <c r="B10" s="158"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="E10" s="169" t="s">
+      <c r="E10" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="F10" s="169" t="s">
+      <c r="F10" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="169" t="s">
+      <c r="G10" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="H10" s="169" t="s">
+      <c r="H10" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="53" t="s">
         <v>486</v>
       </c>
@@ -9053,7 +9017,7 @@
       <c r="A11" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="B11" s="153"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="81" t="s">
         <v>448</v>
       </c>
@@ -9072,10 +9036,10 @@
       <c r="H11" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="I11" s="165" t="s">
+      <c r="I11" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J11" s="166">
+      <c r="J11" s="84">
         <v>45608</v>
       </c>
       <c r="K11" s="45" t="s">
@@ -9087,10 +9051,10 @@
       <c r="A12" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="156" t="s">
         <v>296</v>
       </c>
       <c r="D12" s="67" t="s">
@@ -9108,10 +9072,10 @@
       <c r="H12" s="60" t="s">
         <v>423</v>
       </c>
-      <c r="I12" s="165" t="s">
+      <c r="I12" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J12" s="166">
+      <c r="J12" s="84">
         <v>45608</v>
       </c>
       <c r="K12" s="45" t="s">
@@ -9123,8 +9087,8 @@
       <c r="A13" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
       <c r="D13" s="67" t="s">
         <v>420</v>
       </c>
@@ -9140,10 +9104,10 @@
       <c r="H13" s="74" t="s">
         <v>422</v>
       </c>
-      <c r="I13" s="165" t="s">
+      <c r="I13" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J13" s="166">
+      <c r="J13" s="84">
         <v>45608</v>
       </c>
       <c r="K13" s="45" t="s">
@@ -9176,10 +9140,10 @@
       <c r="H14" s="61" t="s">
         <v>485</v>
       </c>
-      <c r="I14" s="165" t="s">
+      <c r="I14" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J14" s="166">
+      <c r="J14" s="84">
         <v>45608</v>
       </c>
       <c r="K14" s="45" t="s">
@@ -9212,10 +9176,10 @@
       <c r="H15" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="I15" s="165" t="s">
+      <c r="I15" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J15" s="166">
+      <c r="J15" s="84">
         <v>45608</v>
       </c>
       <c r="K15" s="45" t="s">
@@ -9248,10 +9212,10 @@
       <c r="H16" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="I16" s="165" t="s">
+      <c r="I16" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J16" s="166">
+      <c r="J16" s="84">
         <v>45608</v>
       </c>
       <c r="K16" s="45" t="s">
@@ -9284,10 +9248,10 @@
       <c r="H17" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="I17" s="165" t="s">
+      <c r="I17" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J17" s="166">
+      <c r="J17" s="84">
         <v>45608</v>
       </c>
       <c r="K17" s="45" t="s">
@@ -9320,10 +9284,10 @@
       <c r="H18" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="I18" s="165" t="s">
+      <c r="I18" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J18" s="166">
+      <c r="J18" s="84">
         <v>45608</v>
       </c>
       <c r="K18" s="45" t="s">
@@ -9335,10 +9299,10 @@
       <c r="A19" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="143" t="s">
         <v>296</v>
       </c>
       <c r="D19" s="56" t="s">
@@ -9356,10 +9320,10 @@
       <c r="H19" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="I19" s="165" t="s">
+      <c r="I19" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J19" s="166">
+      <c r="J19" s="84">
         <v>45608</v>
       </c>
       <c r="K19" s="45" t="s">
@@ -9371,8 +9335,8 @@
       <c r="A20" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
       <c r="D20" s="56" t="s">
         <v>349</v>
       </c>
@@ -9388,10 +9352,10 @@
       <c r="H20" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="I20" s="165" t="s">
+      <c r="I20" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J20" s="166">
+      <c r="J20" s="84">
         <v>45608</v>
       </c>
       <c r="K20" s="45" t="s">
@@ -9424,10 +9388,10 @@
       <c r="H21" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="I21" s="165" t="s">
+      <c r="I21" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J21" s="166">
+      <c r="J21" s="84">
         <v>45608</v>
       </c>
       <c r="K21" s="45" t="s">
@@ -9437,14 +9401,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
@@ -9456,6 +9412,14 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <conditionalFormatting sqref="I5:I9 I11:I21">
@@ -9511,68 +9475,68 @@
       <c r="A1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="137" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="120" t="s">
+      <c r="L2" s="139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="136"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="121"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="136"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -9582,14 +9546,14 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="122"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="1:12" ht="57.6">
       <c r="A5" s="55" t="s">
@@ -9616,10 +9580,10 @@
       <c r="H5" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="84">
         <v>45608</v>
       </c>
       <c r="K5" s="45" t="s">
@@ -9652,10 +9616,10 @@
       <c r="H6" s="61" t="s">
         <v>415</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J6" s="166">
+      <c r="J6" s="84">
         <v>45608</v>
       </c>
       <c r="K6" s="45" t="s">
@@ -9688,10 +9652,10 @@
       <c r="H7" s="61" t="s">
         <v>478</v>
       </c>
-      <c r="I7" s="165" t="s">
+      <c r="I7" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J7" s="166">
+      <c r="J7" s="84">
         <v>45608</v>
       </c>
       <c r="K7" s="45" t="s">
@@ -9778,68 +9742,68 @@
       <c r="A1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="137" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="120" t="s">
+      <c r="L2" s="139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="136"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="121"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="136"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -9849,23 +9813,23 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="122"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="1:12" ht="72">
       <c r="A5" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="156" t="s">
         <v>363</v>
       </c>
       <c r="D5" s="67" t="s">
@@ -9883,10 +9847,10 @@
       <c r="H5" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="84">
         <v>45608</v>
       </c>
       <c r="K5" s="45" t="s">
@@ -9895,24 +9859,24 @@
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="85" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="167" t="s">
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="85" t="s">
         <v>426</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="85" t="s">
         <v>427</v>
       </c>
-      <c r="G6" s="167" t="s">
+      <c r="G6" s="85" t="s">
         <v>429</v>
       </c>
-      <c r="H6" s="167" t="s">
+      <c r="H6" s="85" t="s">
         <v>430</v>
       </c>
       <c r="I6" s="47"/>
@@ -9988,68 +9952,68 @@
       <c r="A1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="137" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="120" t="s">
+      <c r="L2" s="139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="136"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="121"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="136"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -10059,14 +10023,14 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="122"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="A5" s="55" t="s">
@@ -10075,7 +10039,7 @@
       <c r="B5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="156" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="56" t="s">
@@ -10093,10 +10057,10 @@
       <c r="H5" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="84">
         <v>45608</v>
       </c>
       <c r="K5" s="45" t="s">
@@ -10108,10 +10072,10 @@
       <c r="A6" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="152"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="56" t="s">
         <v>401</v>
       </c>
@@ -10127,10 +10091,10 @@
       <c r="H6" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J6" s="166">
+      <c r="J6" s="84">
         <v>45608</v>
       </c>
       <c r="K6" s="45" t="s">
@@ -10142,7 +10106,7 @@
       <c r="A7" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="B7" s="152"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="57" t="s">
         <v>435</v>
       </c>
@@ -10161,10 +10125,10 @@
       <c r="H7" s="61" t="s">
         <v>438</v>
       </c>
-      <c r="I7" s="165" t="s">
+      <c r="I7" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J7" s="166">
+      <c r="J7" s="84">
         <v>45608</v>
       </c>
       <c r="K7" s="45" t="s">
@@ -10176,7 +10140,7 @@
       <c r="A8" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="156" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="80" t="s">
@@ -10197,10 +10161,10 @@
       <c r="H8" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="I8" s="165" t="s">
+      <c r="I8" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J8" s="166">
+      <c r="J8" s="84">
         <v>45608</v>
       </c>
       <c r="K8" s="45" t="s">
@@ -10212,7 +10176,7 @@
       <c r="A9" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="B9" s="152"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="57" t="s">
         <v>441</v>
       </c>
@@ -10231,10 +10195,10 @@
       <c r="H9" s="61" t="s">
         <v>438</v>
       </c>
-      <c r="I9" s="165" t="s">
+      <c r="I9" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="166">
+      <c r="J9" s="84">
         <v>45608</v>
       </c>
       <c r="K9" s="45" t="s">
@@ -10249,7 +10213,7 @@
       <c r="B10" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="156" t="s">
         <v>169</v>
       </c>
       <c r="D10" s="56" t="s">
@@ -10267,10 +10231,10 @@
       <c r="H10" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="I10" s="165" t="s">
+      <c r="I10" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J10" s="166">
+      <c r="J10" s="84">
         <v>45608</v>
       </c>
       <c r="K10" s="45" t="s">
@@ -10285,7 +10249,7 @@
       <c r="B11" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="152"/>
+      <c r="C11" s="157"/>
       <c r="D11" s="56" t="s">
         <v>404</v>
       </c>
@@ -10301,10 +10265,10 @@
       <c r="H11" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="I11" s="165" t="s">
+      <c r="I11" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J11" s="166">
+      <c r="J11" s="84">
         <v>45608</v>
       </c>
       <c r="K11" s="45" t="s">
@@ -10337,10 +10301,10 @@
       <c r="H12" s="61" t="s">
         <v>438</v>
       </c>
-      <c r="I12" s="165" t="s">
+      <c r="I12" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J12" s="166">
+      <c r="J12" s="84">
         <v>45608</v>
       </c>
       <c r="K12" s="45" t="s">
@@ -10350,11 +10314,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:D3"/>
@@ -10365,6 +10324,11 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <conditionalFormatting sqref="I5:I12">
@@ -10392,8 +10356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E902D0B8-784B-4639-9F9F-60C201EA5BC0}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10417,68 +10381,68 @@
       <c r="A1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="138" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="137" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="120" t="s">
+      <c r="L2" s="139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="136"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="121"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="136"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
@@ -10488,23 +10452,23 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="122"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="A5" s="55" t="s">
         <v>385</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="156" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="156" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="56" t="s">
@@ -10513,7 +10477,7 @@
       <c r="E5" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="F5" s="162" t="s">
+      <c r="F5" s="159" t="s">
         <v>395</v>
       </c>
       <c r="G5" s="60" t="s">
@@ -10523,10 +10487,10 @@
         <f>C5&amp;"画面が日本語で表示されること"</f>
         <v>ログイン画面が日本語で表示されること</v>
       </c>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="84">
         <v>45608</v>
       </c>
       <c r="K5" s="45" t="s">
@@ -10538,530 +10502,674 @@
       <c r="A6" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="56" t="s">
         <v>393</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="163"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="60" t="s">
         <v>388</v>
       </c>
       <c r="H6" s="61" t="s">
         <v>476</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="J6" s="84">
+        <v>45608</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="43.2">
       <c r="A7" s="55" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="67" t="s">
         <v>394</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="F7" s="164"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="60" t="s">
         <v>389</v>
       </c>
       <c r="H7" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+      <c r="I7" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J7" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" ht="43.2" customHeight="1">
       <c r="A8" s="55" t="s">
         <v>396</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="162" t="s">
         <v>459</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="163" t="s">
         <v>473</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="E8" s="164" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="162" t="s">
         <v>399</v>
       </c>
-      <c r="G8" s="157" t="s">
+      <c r="G8" s="167" t="s">
         <v>398</v>
       </c>
       <c r="H8" s="49" t="str">
         <f>C8&amp;"画面が日本語で表示されること"</f>
         <v>ホーム画面が日本語で表示されること</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="I8" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J8" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" ht="43.2" customHeight="1">
       <c r="A9" s="55" t="s">
         <v>397</v>
       </c>
-      <c r="B9" s="153"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="49" t="str">
         <f t="shared" ref="H9:H18" si="0">C9&amp;"画面が日本語で表示されること"</f>
         <v>店舗詳細画面が日本語で表示されること</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
+      <c r="I9" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J9" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" ht="28.8" customHeight="1">
       <c r="A10" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="B10" s="153"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="81" t="s">
         <v>448</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="168"/>
       <c r="H10" s="49" t="str">
         <f t="shared" si="0"/>
         <v>全て口コミ画面が日本語で表示されること</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
+      <c r="I10" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J10" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" ht="28.8" customHeight="1">
       <c r="A11" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="B11" s="153"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="168"/>
       <c r="H11" s="49" t="str">
         <f t="shared" si="0"/>
         <v>未使用のクーポン画面が日本語で表示されること</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="I11" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J11" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" ht="28.8" customHeight="1">
       <c r="A12" s="55" t="s">
         <v>452</v>
       </c>
-      <c r="B12" s="153"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="168"/>
       <c r="H12" s="49" t="str">
         <f t="shared" si="0"/>
         <v>クーポン(使用待ち)画面が日本語で表示されること</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="I12" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J12" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="28.8" customHeight="1">
       <c r="A13" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="B13" s="153"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="168"/>
       <c r="H13" s="49" t="str">
         <f t="shared" si="0"/>
         <v>クーポン(全部)画面が日本語で表示されること</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="I13" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J13" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:12" ht="28.8" customHeight="1">
       <c r="A14" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="B14" s="153"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="49" t="str">
         <f t="shared" si="0"/>
         <v>ブックマークリスト画面が日本語で表示されること</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="I14" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J14" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:12" ht="28.8" customHeight="1">
       <c r="A15" s="55" t="s">
         <v>455</v>
       </c>
-      <c r="B15" s="153"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="168"/>
       <c r="H15" s="49" t="str">
         <f t="shared" si="0"/>
         <v>マイページ画面が日本語で表示されること</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="I15" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J15" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12" ht="28.8" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>456</v>
       </c>
-      <c r="B16" s="153"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="168"/>
       <c r="H16" s="49" t="str">
         <f t="shared" si="0"/>
         <v>個人情報設定画面が日本語で表示されること</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="I16" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J16" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
       <c r="A17" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="57" t="s">
         <v>441</v>
       </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="168"/>
       <c r="H17" s="49" t="str">
         <f t="shared" si="0"/>
         <v>My口コミ画面が日本語で表示されること</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="I17" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J17" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L17" s="53"/>
     </row>
     <row r="18" spans="1:12" ht="28.8" customHeight="1">
       <c r="A18" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="B18" s="152"/>
+      <c r="B18" s="157"/>
       <c r="C18" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="159"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="169"/>
       <c r="H18" s="49" t="str">
         <f t="shared" si="0"/>
         <v>パスワード初期化画面が日本語で表示されること</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
+      <c r="I18" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J18" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="23.4" customHeight="1">
       <c r="A19" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="162" t="s">
         <v>471</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="163" t="s">
         <v>472</v>
       </c>
-      <c r="E19" s="161" t="s">
+      <c r="E19" s="164" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="154" t="s">
+      <c r="F19" s="162" t="s">
         <v>475</v>
       </c>
-      <c r="G19" s="157" t="s">
+      <c r="G19" s="167" t="s">
         <v>474</v>
       </c>
       <c r="H19" s="49" t="str">
         <f>C19&amp;"画面が中国語で表示されること"</f>
         <v>ホーム画面が中国語で表示されること</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+      <c r="I19" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J19" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="23.4" customHeight="1">
       <c r="A20" s="55" t="s">
         <v>461</v>
       </c>
-      <c r="B20" s="153"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="49" t="str">
         <f t="shared" ref="H20:H29" si="1">C20&amp;"画面が中国語で表示されること"</f>
         <v>店舗詳細画面が中国語で表示されること</v>
       </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
+      <c r="I20" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J20" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="23.4" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="B21" s="153"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="81" t="s">
         <v>448</v>
       </c>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="168"/>
       <c r="H21" s="49" t="str">
         <f t="shared" si="1"/>
         <v>全て口コミ画面が中国語で表示されること</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
+      <c r="I21" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J21" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12" ht="23.4" customHeight="1">
       <c r="A22" s="55" t="s">
         <v>463</v>
       </c>
-      <c r="B22" s="153"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="168"/>
       <c r="H22" s="49" t="str">
         <f t="shared" si="1"/>
         <v>未使用のクーポン画面が中国語で表示されること</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
+      <c r="I22" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J22" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="23.4" customHeight="1">
       <c r="A23" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="B23" s="153"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="49" t="str">
         <f t="shared" si="1"/>
         <v>クーポン(使用待ち)画面が中国語で表示されること</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
+      <c r="I23" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J23" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" ht="23.4" customHeight="1">
       <c r="A24" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="B24" s="153"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="49" t="str">
         <f t="shared" si="1"/>
         <v>クーポン(全部)画面が中国語で表示されること</v>
       </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
+      <c r="I24" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J24" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" ht="23.4" customHeight="1">
       <c r="A25" s="55" t="s">
         <v>466</v>
       </c>
-      <c r="B25" s="153"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="168"/>
       <c r="H25" s="49" t="str">
         <f t="shared" si="1"/>
         <v>ブックマークリスト画面が中国語で表示されること</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="I25" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J25" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="23.4" customHeight="1">
       <c r="A26" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="B26" s="153"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="168"/>
       <c r="H26" s="49" t="str">
         <f t="shared" si="1"/>
         <v>マイページ画面が中国語で表示されること</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
+      <c r="I26" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J26" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="23.4" customHeight="1">
       <c r="A27" s="55" t="s">
         <v>468</v>
       </c>
-      <c r="B27" s="153"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="168"/>
       <c r="H27" s="49" t="str">
         <f t="shared" si="1"/>
         <v>個人情報設定画面が中国語で表示されること</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
+      <c r="I27" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J27" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="23.4" customHeight="1">
       <c r="A28" s="55" t="s">
         <v>469</v>
       </c>
-      <c r="B28" s="153"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="57" t="s">
         <v>441</v>
       </c>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="168"/>
       <c r="H28" s="49" t="str">
         <f t="shared" si="1"/>
         <v>My口コミ画面が中国語で表示されること</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
+      <c r="I28" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J28" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="23.4" customHeight="1">
       <c r="A29" s="55" t="s">
         <v>470</v>
       </c>
-      <c r="B29" s="152"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="159"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="49" t="str">
         <f t="shared" si="1"/>
         <v>パスワード初期化画面が中国語で表示されること</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
+      <c r="I29" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J29" s="170">
+        <v>45609</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>484</v>
+      </c>
       <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:12">
@@ -11084,6 +11192,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F8:F18"/>
+    <mergeCell ref="G8:G18"/>
+    <mergeCell ref="G19:G29"/>
+    <mergeCell ref="D19:D29"/>
+    <mergeCell ref="E19:E29"/>
+    <mergeCell ref="F19:F29"/>
+    <mergeCell ref="B8:B18"/>
+    <mergeCell ref="D8:D18"/>
+    <mergeCell ref="E8:E18"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
@@ -11096,21 +11216,9 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="B8:B18"/>
-    <mergeCell ref="D8:D18"/>
-    <mergeCell ref="E8:E18"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="F8:F18"/>
-    <mergeCell ref="G8:G18"/>
-    <mergeCell ref="G19:G29"/>
-    <mergeCell ref="D19:D29"/>
-    <mergeCell ref="E19:E29"/>
-    <mergeCell ref="F19:F29"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="I5:I29">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
